--- a/trend_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
+++ b/trend_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.414296537609323</v>
+        <v>0.5857034623906771</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0260254590457986</v>
+        <v>0.973974540954201</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.282719053431976</v>
+        <v>0.717280946568024</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.41023888246743e-07</v>
+        <v>0.999999658976112</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.110335680959923</v>
+        <v>0.0003231448330679</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.719745222929936</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.36</v>
+        <v>2.85</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0736082172606243</v>
+        <v>0.18143627954779</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.206289769970839</v>
+        <v>0.0661882402910775</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0175971445436236</v>
+        <v>0.308799816300266</v>
       </c>
       <c r="N30" t="n">
-        <v>-20.4467270168401</v>
+        <v>6.36618524729089</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,11 +3177,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3188,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.231216363225238</v>
+        <v>0.982954466803496</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.300751879699248</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.428571428571429</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J31" t="n">
-        <v>110</v>
+        <v>2.4</v>
       </c>
       <c r="K31" t="n">
-        <v>-5.41487480127186</v>
+        <v>0.09559003720433951</v>
       </c>
       <c r="L31" t="n">
-        <v>-9.30587684574934</v>
+        <v>0.0201898328333086</v>
       </c>
       <c r="M31" t="n">
-        <v>1.27188636582205</v>
+        <v>0.153466386554622</v>
       </c>
       <c r="N31" t="n">
-        <v>-4.92261345570169</v>
+        <v>3.98291821684748</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3254,11 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,14 +3268,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3275,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.04320536648685</v>
+        <v>0.0014310759393919</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.79746835443038</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>4.591</v>
+        <v>9.98</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.861518720768636</v>
+        <v>-0.0418755145278449</v>
       </c>
       <c r="L32" t="n">
-        <v>-1.64379872197727</v>
+        <v>-0.062695285952429</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.33671983674498</v>
+        <v>-0.0192997238296044</v>
       </c>
       <c r="N32" t="n">
-        <v>-18.7653827220352</v>
+        <v>-0.419594333946342</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3345,11 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,46 +3359,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.088983712984032</v>
+        <v>0.642993222801055</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0506329113924051</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.503</v>
+        <v>0.011</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.019875</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0348655755667223</v>
+        <v>-0.0001661737943585</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003252936300662</v>
+        <v>8.55510597020313e-05</v>
       </c>
       <c r="N33" t="n">
-        <v>-3.95129224652088</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3395,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3424,7 +3436,11 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,14 +3450,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3449,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0123819391122399</v>
+        <v>0.5955973040500701</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0063291139240506</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9</v>
+        <v>0.664556962025316</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>112.5</v>
+        <v>148.5</v>
       </c>
       <c r="K34" t="n">
-        <v>-2.24538934426229</v>
+        <v>-0.199154852780807</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.05358100248405</v>
+        <v>-4.8293978969129</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.644845791831369</v>
+        <v>2.75682770842907</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.99590163934426</v>
+        <v>-0.134111011973607</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.237137175383665</v>
+        <v>0.896528027511015</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.928571428571429</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.0844155844155844</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>4.7425</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0346787909836066</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.328846837315267</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.302941399123948</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.731234390798242</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3569,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3598,7 +3618,1166 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.481992627547936</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.441558441558442</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0844155844155844</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>8.222707595592309e-11</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9220779220779221</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7225</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0407426289365587</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0299982264883459</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.052882946824686</v>
+      </c>
+      <c r="N37" t="n">
+        <v>5.63911819191123</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999999810771139</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.628930817610063</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0457038581856099</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0315330382607401</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0586948006920816</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.614299169161423</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>7.84176487531994e-10</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.905063291139241</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.726</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0368464793500339</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0259625596769433</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0485481790042214</v>
+      </c>
+      <c r="N39" t="n">
+        <v>5.07527263774571</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>2.22027893506006e-06</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.753164556962025</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0254799818016378</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0162748486199336</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0347994370065687</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3.13406910229248</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.939081018614948</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0253164556962025</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.265822784810127</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0001999178981937</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0004431301182893</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.249486863711</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.999783257100359</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.791139240506329</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0401373626373626</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0717099096656813</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.0211703034435731</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-4.15931219040027</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0736082172606243</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.206289769970839</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0175971445436236</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-20.4467270168401</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.231216363225238</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>110</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-5.41487480127186</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-9.30587684574934</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.27188636582205</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-4.92261345570169</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.04320536648685</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>4.591</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.861518720768636</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-1.64379872197727</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.33671983674498</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-18.7653827220352</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.088983712984032</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.019875</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0348655755667223</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0003252936300662</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-3.95129224652088</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0123819391122399</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-2.24538934426229</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-4.05358100248405</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.644845791831369</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.99590163934426</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Kumeti at Te Rehunga</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4.7425</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0346787909836066</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.328846837315267</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.302941399123948</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.731234390798242</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1856406</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5543533</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Upper Kumeti</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Mana_4</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
+++ b/trend_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,35 +569,35 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.0401543055831496</v>
+        <v>0.986474491806963</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H2" t="n">
-        <v>0.859649122807018</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>0.522845692330986</v>
+        <v>-0.93223028130171</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0183361006241264</v>
+        <v>-1.55044805702004</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36626807368479</v>
+        <v>-0.198499761542953</v>
       </c>
       <c r="N2" t="n">
-        <v>12.7523339592924</v>
+        <v>-22.737323934188</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.905216424107239</v>
+        <v>0.113581781502465</v>
       </c>
       <c r="G3" t="n">
-        <v>0.372549019607843</v>
+        <v>0.390243902439024</v>
       </c>
       <c r="H3" t="n">
-        <v>0.568627450980392</v>
+        <v>0.51219512195122</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.37948051948052</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0.477329573973603</v>
       </c>
       <c r="M3" t="n">
-        <v>0.606901625726939</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>13.0855351545007</v>
+        <v>0</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5857034623906771</v>
+        <v>0.528766206292791</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.949152542372881</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>9.99</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0173707689715952</v>
+        <v>0.0074897470950103</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0320892204296433</v>
+        <v>-0.0301030219780219</v>
       </c>
       <c r="M4" t="n">
-        <v>0.133425734436885</v>
+        <v>0.118003491387856</v>
       </c>
       <c r="N4" t="n">
-        <v>0.173707689715952</v>
+        <v>0.07497244339349669</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.887389336792361</v>
+        <v>0.182173063316776</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0.011</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0004787024901703</v>
+        <v>0.0003355569833392</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0010617460259935</v>
+        <v>-0.0002196203810935</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.0009845013477087999</v>
       </c>
       <c r="N5" t="n">
-        <v>-4.35184081973073</v>
+        <v>3.05051803035674</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.383733986980362</v>
+        <v>0.697089154723832</v>
       </c>
       <c r="G6" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H6" t="n">
-        <v>0.741379310344828</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K6" t="n">
-        <v>7.36269086424982</v>
+        <v>-9.69986263736264</v>
       </c>
       <c r="L6" t="n">
-        <v>-23.1388169123676</v>
+        <v>-27.8059312267142</v>
       </c>
       <c r="M6" t="n">
-        <v>22.23306388731</v>
+        <v>16.2155294395314</v>
       </c>
       <c r="N6" t="n">
-        <v>5.66360835711525</v>
+        <v>-7.75989010989011</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1029,10 +1029,10 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.944444444444444</v>
+        <v>0.943396226415094</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0740740740740741</v>
+        <v>0.0754716981132075</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1103,14 +1103,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8232746230638111</v>
+        <v>0.999997242126359</v>
       </c>
       <c r="G8" t="n">
-        <v>0.448275862068966</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="H8" t="n">
         <v>0.120689655172414</v>
@@ -1119,19 +1119,19 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0003753854059609</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0007087733919006</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-37.5385405960946</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0007621892914482</v>
+        <v>0.253508774251516</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9655172413793101</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.897</v>
+        <v>0.911</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09499175824175821</v>
+        <v>0.0200206701193544</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0610189224431165</v>
+        <v>-0.0233529796523047</v>
       </c>
       <c r="M9" t="n">
-        <v>0.13447358308355</v>
+        <v>0.08131789581081909</v>
       </c>
       <c r="N9" t="n">
-        <v>10.5899396033175</v>
+        <v>2.19765863000597</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.973974540954201</v>
+        <v>0.041120865486548</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.830508474576271</v>
+        <v>0.827586206896552</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.58</v>
+        <v>7.57</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0606727574750828</v>
+        <v>-0.06464601769911529</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008922030006198499</v>
+        <v>-0.123109854154483</v>
       </c>
       <c r="M10" t="n">
-        <v>0.127835572273713</v>
+        <v>-0.0044108783654049</v>
       </c>
       <c r="N10" t="n">
-        <v>0.800432156663362</v>
+        <v>-0.85397645573468</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0007621892914482</v>
+        <v>0.253508774251516</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.909</v>
+        <v>0.9195</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0920007263826708</v>
+        <v>0.0187675778169199</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0569593644339107</v>
+        <v>-0.0256074088864908</v>
       </c>
       <c r="M11" t="n">
-        <v>0.13344627890515</v>
+        <v>0.0822574406997279</v>
       </c>
       <c r="N11" t="n">
-        <v>10.1210920112949</v>
+        <v>2.0410633841131</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,46 +1452,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.92444910448406</v>
+        <v>0.252346342651449</v>
       </c>
       <c r="G12" t="n">
-        <v>0.517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.206896551724138</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.75</v>
+        <v>0.985</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0174245092941635</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>-0.0290401339586824</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0571795005275467</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.76898571514351</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,14 +1543,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0015538195678655</v>
+        <v>0.134885239866801</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.775862068965517</v>
+        <v>0.362068965517241</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.955</v>
+        <v>0.015</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0873943288854003</v>
+        <v>0.0004831349206349</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0496350026282627</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.128294268546634</v>
+        <v>0.0015346638655462</v>
       </c>
       <c r="N13" t="n">
-        <v>9.15123862674349</v>
+        <v>3.22089947089947</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,46 +1634,46 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.330955276407259</v>
+        <v>0.587517215582505</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.431034482758621</v>
+        <v>0.758620689655172</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.015</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.0099865580847723</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0006992230693721</v>
+        <v>-0.0595468625907416</v>
       </c>
       <c r="M14" t="n">
-        <v>0.001337912087912</v>
+        <v>0.07669564004124139</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-1.24831976059654</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,46 +1725,46 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.354828224212717</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0260869565217391</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.773913043478261</v>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>0.881546678608342</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.827586206896552</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
       <c r="J15" t="n">
-        <v>0.8</v>
+        <v>3.35</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.05793915969578</v>
+        <v>0.0187112661391087</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.147363216082327</v>
+        <v>-0.123367169397822</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0176252137063813</v>
+        <v>0.190508430450597</v>
       </c>
       <c r="N15" t="n">
-        <v>-7.2423949619725</v>
+        <v>0.558545257883842</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,46 +1816,46 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.12481981385745</v>
+        <v>0.606933744157655</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.344086021505376</v>
       </c>
       <c r="H16" t="n">
-        <v>0.765217391304348</v>
+        <v>0.494623655913978</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>2.72</v>
       </c>
       <c r="K16" t="n">
-        <v>0.080322621888851</v>
+        <v>0.122259448276784</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.053471578958973</v>
+        <v>0.0061807819362032</v>
       </c>
       <c r="M16" t="n">
-        <v>0.260892857142857</v>
+        <v>0.229271045033815</v>
       </c>
       <c r="N16" t="n">
-        <v>2.29493205396717</v>
+        <v>4.49483265723471</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.984407808694485</v>
+        <v>0.955212420707244</v>
       </c>
       <c r="G17" t="n">
-        <v>0.316831683168317</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.445544554455446</v>
+        <v>0.873949579831933</v>
       </c>
       <c r="I17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.6</v>
+        <v>9.93</v>
       </c>
       <c r="K17" t="n">
-        <v>0.185428766588603</v>
+        <v>0.0167239010989013</v>
       </c>
       <c r="L17" t="n">
-        <v>0.105136144188277</v>
+        <v>0.001679694816437</v>
       </c>
       <c r="M17" t="n">
-        <v>0.263168244428763</v>
+        <v>0.0428722471785286</v>
       </c>
       <c r="N17" t="n">
-        <v>7.13187563802318</v>
+        <v>0.168417936544827</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2009,35 +2009,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.717280946568024</v>
+        <v>0.260199960408128</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="H18" t="n">
-        <v>0.857142857142857</v>
+        <v>0.144067796610169</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>9.91</v>
+        <v>0.011</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0099704276615108</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0199408553230211</v>
+        <v>-7.882883309728181e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0359631637615068</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="N18" t="n">
-        <v>0.100609764495569</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2104,31 +2104,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.135528898933751</v>
+        <v>0.307099301985431</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0593220338983051</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H19" t="n">
-        <v>0.144067796610169</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.011</v>
+        <v>125</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001180420339956</v>
+        <v>0.5634555731356961</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-4.32953921084962</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003998357963875</v>
+        <v>5.99735843539807</v>
       </c>
       <c r="N19" t="n">
-        <v>1.07310939996028</v>
+        <v>0.450764458508557</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,47 +2180,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0.0967970823984954</v>
-      </c>
+          <t>&lt; 5 Non-censored values</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.964601769911504</v>
       </c>
       <c r="H20" t="n">
-        <v>0.644067796610169</v>
+        <v>0.0442477876106195</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>133</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.80865516062885</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-0.198894179635396</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6.79706763833772</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.1117707974653</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>RepSite</t>
@@ -2228,7 +2216,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Not Analysed improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2259,7 +2247,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2259,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,35 +2270,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.454691778687489</v>
+        <v>0.999992996212357</v>
       </c>
       <c r="G21" t="n">
-        <v>0.956140350877193</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0526315789473684</v>
+        <v>0.101694915254237</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.000130121125757</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.0002298615481434</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>-6.5060562878518</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2307,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,46 +2350,46 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.998998589135794</v>
+        <v>0.0003986389262387</v>
       </c>
       <c r="G22" t="n">
-        <v>0.322033898305085</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.101694915254237</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002</v>
+        <v>0.8219</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0001141763050953</v>
+        <v>0.0371570481242895</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0002298615481434</v>
+        <v>0.0149692356007691</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0546533296111398</v>
       </c>
       <c r="N22" t="n">
-        <v>-5.70881525476711</v>
+        <v>4.52087214068494</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2398,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,14 +2441,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2468,31 +2456,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.72880574081918e-07</v>
+        <v>0.999893701573728</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.932203389830508</v>
+        <v>0.644067796610169</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.80845</v>
+        <v>7.445</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0561074968952281</v>
+        <v>0.0385755975541969</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0390462363031752</v>
+        <v>0.0206642997489162</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0675356785200706</v>
+        <v>0.0560755959176486</v>
       </c>
       <c r="N23" t="n">
-        <v>6.9401319679916</v>
+        <v>0.518141001399555</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2489,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2518,7 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,14 +2528,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2559,31 +2543,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.999999658976112</v>
+        <v>0.0002683052437711</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.680672268907563</v>
+        <v>0.906779661016949</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>7.44</v>
+        <v>0.82855</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0537132352941176</v>
+        <v>0.0367306479704506</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0383665966386555</v>
+        <v>0.0170171885049321</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0700468264281338</v>
+        <v>0.0570754385725632</v>
       </c>
       <c r="N24" t="n">
-        <v>0.721952087286527</v>
+        <v>4.43312388756871</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2576,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2605,11 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2619,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2634,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.69662193346162e-07</v>
+        <v>0.0055499119391289</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.915254237288136</v>
+        <v>0.720338983050847</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0570634196456188</v>
+        <v>0.0249658236500342</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0389836836283468</v>
+        <v>0.0100257900549197</v>
       </c>
       <c r="M25" t="n">
-        <v>0.06814374082362171</v>
+        <v>0.0380426082479043</v>
       </c>
       <c r="N25" t="n">
-        <v>7.01887080511917</v>
+        <v>2.69900796216586</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,46 +2710,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.999976894689057</v>
+        <v>0.772843021607229</v>
       </c>
       <c r="G26" t="n">
-        <v>0.347457627118644</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.203389830508475</v>
+        <v>0.26271186440678</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>0.015</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.12248490945674</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.264418436293436</v>
+        <v>-0.0003342387118008</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>8.597353311198071e-05</v>
       </c>
       <c r="N26" t="n">
-        <v>-6.12424547283702</v>
+        <v>0</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2758,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2789,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2801,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2828,31 +2816,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.47524070516823e-06</v>
+        <v>0.9930065833641279</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.76271186440678</v>
+        <v>0.754237288135593</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.875</v>
+        <v>0.855</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0413939565322035</v>
+        <v>-0.0399462323390894</v>
       </c>
       <c r="L27" t="n">
-        <v>0.0298637227142336</v>
+        <v>-0.07893158496571211</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0559374050779395</v>
+        <v>-0.009742997436967601</v>
       </c>
       <c r="N27" t="n">
-        <v>4.73073788939469</v>
+        <v>-4.67207395778824</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2849,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2880,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,46 +2892,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.737078226691127</v>
+        <v>0.0061616084407529</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0177514792899408</v>
       </c>
       <c r="H28" t="n">
-        <v>0.26271186440678</v>
+        <v>0.70414201183432</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.015</v>
+        <v>2.8</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.0909887326958102</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.000394004920653</v>
+        <v>0.0205960393471812</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0001539190897597</v>
+        <v>0.216970485921946</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.24959759627894</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2940,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2971,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2995,46 +2983,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.999306936475517</v>
+        <v>0.955541188301601</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.296296296296296</v>
       </c>
       <c r="H29" t="n">
-        <v>0.788135593220339</v>
+        <v>0.42962962962963</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.06716091691716899</v>
+        <v>0.0760937500000001</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.107636496112974</v>
+        <v>0.002022935272514</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0256368387988631</v>
+        <v>0.138000010969495</v>
       </c>
       <c r="N29" t="n">
-        <v>-7.46232410190767</v>
+        <v>3.17057291666667</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3031,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3062,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3074,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3101,31 +3089,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0003231448330679</v>
+        <v>0.0044178553602599</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.719745222929936</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.85</v>
+        <v>9.98</v>
       </c>
       <c r="K30" t="n">
-        <v>0.18143627954779</v>
+        <v>-0.0299883976048975</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0661882402910775</v>
+        <v>-0.0468587177437589</v>
       </c>
       <c r="M30" t="n">
-        <v>0.308799816300266</v>
+        <v>-0.0100303473100386</v>
       </c>
       <c r="N30" t="n">
-        <v>6.36618524729089</v>
+        <v>-0.300484945940856</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3122,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3153,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3165,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.982954466803496</v>
+        <v>0.493745111198731</v>
       </c>
       <c r="G31" t="n">
-        <v>0.300751879699248</v>
+        <v>0.0470588235294118</v>
       </c>
       <c r="H31" t="n">
-        <v>0.428571428571429</v>
+        <v>0.111764705882353</v>
       </c>
       <c r="I31" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.4</v>
+        <v>0.011</v>
       </c>
       <c r="K31" t="n">
-        <v>0.09559003720433951</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.0201898328333086</v>
+        <v>-0.000111018237082</v>
       </c>
       <c r="M31" t="n">
-        <v>0.153466386554622</v>
+        <v>0.0001110086672861</v>
       </c>
       <c r="N31" t="n">
-        <v>3.98291821684748</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3213,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3244,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3256,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3283,31 +3271,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0014310759393919</v>
+        <v>0.854484271578857</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0058823529411764</v>
       </c>
       <c r="H32" t="n">
-        <v>0.79746835443038</v>
+        <v>0.658823529411765</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>9.98</v>
+        <v>142</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0418755145278449</v>
+        <v>-1.84828727131179</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.062695285952429</v>
+        <v>-5.84422439891644</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0192997238296044</v>
+        <v>0.596914372741262</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.419594333946342</v>
+        <v>-1.30161075444493</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3304,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3335,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3359,43 +3347,43 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.642993222801055</v>
+        <v>0.942772057303059</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0506329113924051</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="H33" t="n">
-        <v>0.120253164556962</v>
+        <v>0.0787878787878788</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0001661737943585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>8.55510597020313e-05</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -3407,7 +3395,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,46 +3438,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5955973040500701</v>
+        <v>0.9253007132129411</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0063291139240506</v>
+        <v>0.481927710843373</v>
       </c>
       <c r="H34" t="n">
-        <v>0.664556962025316</v>
+        <v>0.0783132530120482</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>148.5</v>
+        <v>0.002</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.199154852780807</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.8293978969129</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2.75682770842907</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.134111011973607</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3498,7 +3486,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3529,7 +3517,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,46 +3529,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.896528027511015</v>
+        <v>7.599767770233659e-11</v>
       </c>
       <c r="G35" t="n">
-        <v>0.928571428571429</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0844155844155844</v>
+        <v>0.927710843373494</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.7225</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0346045386904762</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.0250102413582085</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0456001546434407</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>4.78955552809359</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3577,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,7 +3620,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3643,35 +3631,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.481992627547936</v>
+        <v>0.999992184961602</v>
       </c>
       <c r="G36" t="n">
-        <v>0.441558441558442</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0844155844155844</v>
+        <v>0.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002</v>
+        <v>7.43</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0333942857142857</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0207642160741917</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0461247040252565</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.449452028456067</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3668,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3709,11 +3697,7 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,7 +3707,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3738,31 +3722,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8.222707595592309e-11</v>
+        <v>5.04510741063127e-10</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9220779220779221</v>
+        <v>0.929411764705882</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.7225</v>
+        <v>0.726</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0407426289365587</v>
+        <v>0.0310586734693878</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0299982264883459</v>
+        <v>0.0228187538115399</v>
       </c>
       <c r="M37" t="n">
-        <v>0.052882946824686</v>
+        <v>0.0403035279171358</v>
       </c>
       <c r="N37" t="n">
-        <v>5.63911819191123</v>
+        <v>4.27805419688537</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3802,7 +3786,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3798,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3813,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999999810771139</v>
+        <v>4.55545580408534e-06</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.628930817610063</v>
+        <v>0.717647058823529</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.44</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0457038581856099</v>
+        <v>0.0215340136054422</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0315330382607401</v>
+        <v>0.0133291574877851</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0586948006920816</v>
+        <v>0.0298312489975429</v>
       </c>
       <c r="N38" t="n">
-        <v>0.614299169161423</v>
+        <v>2.64871016057099</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3846,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3875,11 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,7 +3889,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3916,31 +3904,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>7.84176487531994e-10</v>
+        <v>0.971565337039676</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.0235294117647059</v>
       </c>
       <c r="H39" t="n">
-        <v>0.905063291139241</v>
+        <v>0.252941176470588</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.726</v>
+        <v>0.016</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0368464793500339</v>
+        <v>-0.0002138466042154</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0259625596769433</v>
+        <v>-0.0004154344858962</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0485481790042214</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5.07527263774571</v>
+        <v>-1.3365412763466</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3937,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3980,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,31 +3995,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.22027893506006e-06</v>
+        <v>0.999900622972852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.753164556962025</v>
+        <v>0.770588235294118</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.955</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0254799818016378</v>
+        <v>-0.0399180327868853</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0162748486199336</v>
+        <v>-0.0654869832755019</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0347994370065687</v>
+        <v>-0.0211703034435731</v>
       </c>
       <c r="N40" t="n">
-        <v>3.13406910229248</v>
+        <v>-4.17989872113982</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4028,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4059,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4071,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.939081018614948</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0253164556962025</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.265822784810127</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.016</v>
+        <v>0.36</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0001999178981937</v>
+        <v>0.0064234341742551</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0004431301182893</v>
+        <v>-0.0760373361906982</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.07044643230904291</v>
       </c>
       <c r="N41" t="n">
-        <v>-1.249486863711</v>
+        <v>1.78428727062642</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4119,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4160,11 +4148,7 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4174,46 +4158,46 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>1</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>0.999783257100359</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.791139240506329</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.965</v>
+        <v>105</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0401373626373626</v>
+        <v>-2.32599282007384</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0717099096656813</v>
+        <v>-11.197695227448</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0211703034435731</v>
+        <v>2.65196032903322</v>
       </c>
       <c r="N42" t="n">
-        <v>-4.15931219040027</v>
+        <v>-2.21523125721318</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4206,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4251,11 +4235,7 @@
           <t>Mana_4</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4265,7 +4245,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4280,7 +4260,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.110335680959923</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4292,19 +4272,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.36</v>
+        <v>4.591</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0736082172606243</v>
+        <v>0.0308202589123233</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.206289769970839</v>
+        <v>-1.64379872197727</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0175971445436236</v>
+        <v>1.16759261943274</v>
       </c>
       <c r="N43" t="n">
-        <v>-20.4467270168401</v>
+        <v>0.67131907890053</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4293,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4352,11 +4332,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4367,31 +4347,31 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.231216363225238</v>
+        <v>0.063424647007573</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110</v>
+        <v>0.506</v>
       </c>
       <c r="K44" t="n">
-        <v>-5.41487480127186</v>
+        <v>-0.019875</v>
       </c>
       <c r="L44" t="n">
-        <v>-9.30587684574934</v>
+        <v>-0.0348655755667223</v>
       </c>
       <c r="M44" t="n">
-        <v>1.27188636582205</v>
+        <v>-0.0007134743278915001</v>
       </c>
       <c r="N44" t="n">
-        <v>-4.92261345570169</v>
+        <v>-3.92786561264822</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4400,7 +4380,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4439,11 +4419,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4454,31 +4434,31 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.04320536648685</v>
+        <v>0.019439702257616</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.591</v>
+        <v>110.5</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.861518720768636</v>
+        <v>-1.74760765550239</v>
       </c>
       <c r="L45" t="n">
-        <v>-1.64379872197727</v>
+        <v>-3.12237172891668</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.33671983674498</v>
+        <v>-0.51921078977228</v>
       </c>
       <c r="N45" t="n">
-        <v>-18.7653827220352</v>
+        <v>-1.58154538959493</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4526,7 +4506,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4541,31 +4521,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.088983712984032</v>
+        <v>0.360257393568128</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.503</v>
+        <v>5.2475</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.019875</v>
+        <v>-0.0343749999999999</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0348655755667223</v>
+        <v>-0.328846837315267</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0003252936300662</v>
+        <v>0.299520505092704</v>
       </c>
       <c r="N46" t="n">
-        <v>-3.95129224652088</v>
+        <v>-0.6550738446879451</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4554,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4604,180 +4584,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Kumeti at Te Rehunga</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.0123819391122399</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>112.5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-2.24538934426229</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-4.05358100248405</v>
-      </c>
-      <c r="M47" t="n">
-        <v>-0.644845791831369</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-1.99590163934426</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1856406</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5543533</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Upper Kumeti</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Mana_4</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Kumeti at Te Rehunga</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.237137175383665</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4.7425</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-0.0346787909836066</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.328846837315267</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.302941399123948</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-0.731234390798242</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1856406</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5543533</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Upper Kumeti</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Mana_4</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
+++ b/trend_results/Rivers/KumetiatTeRehunga_ca3813f8c6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="70">
   <si>
     <t>site name</t>
   </si>
@@ -136,15 +136,15 @@
     <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>&lt; 5 Non-censored values</t>
+  </si>
+  <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>&lt; 5 Non-censored values</t>
-  </si>
-  <si>
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
@@ -154,49 +154,46 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Not Analysed improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -678,31 +675,31 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.986474491806963</v>
+        <v>0.99661165089992</v>
       </c>
       <c r="G2">
-        <v>0.0526315789473684</v>
+        <v>0.0576923076923077</v>
       </c>
       <c r="H2">
-        <v>0.807017543859649</v>
+        <v>0.807692307692308</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>4.1</v>
+        <v>3.825</v>
       </c>
       <c r="K2">
-        <v>-0.93223028130171</v>
+        <v>-1.11861008428744</v>
       </c>
       <c r="L2">
-        <v>-1.55044805702004</v>
+        <v>-1.81748826294492</v>
       </c>
       <c r="M2">
-        <v>-0.198499761542953</v>
+        <v>-0.41289026340028</v>
       </c>
       <c r="N2">
-        <v>-22.737323934188</v>
+        <v>-29.2447080859461</v>
       </c>
       <c r="O2" t="s">
         <v>45</v>
@@ -717,19 +714,19 @@
         <v>5543533</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
         <v>64</v>
-      </c>
-      <c r="W2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -749,31 +746,31 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.113581781502465</v>
+        <v>0.0333259897057691</v>
       </c>
       <c r="G3">
-        <v>0.390243902439024</v>
+        <v>0.366666666666667</v>
       </c>
       <c r="H3">
-        <v>0.51219512195122</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3.5</v>
+        <v>3.025</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.362531017369727</v>
       </c>
       <c r="L3">
-        <v>-0.477329573973603</v>
+        <v>-0.996522509802609</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-11.9844964419744</v>
       </c>
       <c r="O3" t="s">
         <v>45</v>
@@ -788,19 +785,19 @@
         <v>5543533</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -817,16 +814,16 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4">
-        <v>0.528766206292791</v>
+        <v>0.667908339253463</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -835,16 +832,16 @@
         <v>9.99</v>
       </c>
       <c r="K4">
-        <v>0.0074897470950103</v>
+        <v>0.0249544495682888</v>
       </c>
       <c r="L4">
-        <v>-0.0301030219780219</v>
+        <v>-0.0319401326346127</v>
       </c>
       <c r="M4">
-        <v>0.118003491387856</v>
+        <v>0.135702850450095</v>
       </c>
       <c r="N4">
-        <v>0.07497244339349669</v>
+        <v>0.249794289972861</v>
       </c>
       <c r="O4" t="s">
         <v>45</v>
@@ -859,19 +856,19 @@
         <v>5543533</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -888,16 +885,16 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
-        <v>0.182173063316776</v>
+        <v>0.08557551845852671</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.275862068965517</v>
+        <v>0.258620689655172</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -906,22 +903,22 @@
         <v>0.011</v>
       </c>
       <c r="K5">
-        <v>0.0003355569833392</v>
+        <v>0.0002916030526002</v>
       </c>
       <c r="L5">
-        <v>-0.0002196203810935</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0009845013477087999</v>
+        <v>0.0009523873641363</v>
       </c>
       <c r="N5">
-        <v>3.05051803035674</v>
+        <v>2.6509368418206</v>
       </c>
       <c r="O5" t="s">
         <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>1856406</v>
@@ -930,19 +927,19 @@
         <v>5543533</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -956,43 +953,43 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>0.697089154723832</v>
+        <v>0.767274744368097</v>
       </c>
       <c r="G6">
-        <v>0.0172413793103448</v>
+        <v>0.0175438596491228</v>
       </c>
       <c r="H6">
-        <v>0.810344827586207</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="K6">
-        <v>-9.69986263736264</v>
+        <v>-5.66888309671694</v>
       </c>
       <c r="L6">
-        <v>-27.8059312267142</v>
+        <v>-21.482160710759</v>
       </c>
       <c r="M6">
-        <v>16.2155294395314</v>
+        <v>10.38736013324</v>
       </c>
       <c r="N6">
-        <v>-7.75989010989011</v>
+        <v>-5.1535300879245</v>
       </c>
       <c r="O6" t="s">
         <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q6">
         <v>1856406</v>
@@ -1001,19 +998,19 @@
         <v>5543533</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1030,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>0.943396226415094</v>
@@ -1045,7 +1042,7 @@
         <v>45</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q7">
         <v>1856406</v>
@@ -1054,19 +1051,19 @@
         <v>5543533</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1083,16 +1080,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <v>0.999997242126359</v>
+        <v>0.999767605012465</v>
       </c>
       <c r="G8">
-        <v>0.5344827586206899</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="H8">
-        <v>0.120689655172414</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1101,22 +1098,22 @@
         <v>0.001</v>
       </c>
       <c r="K8">
-        <v>-0.0003753854059609</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0007087733919006</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-37.5385405960946</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>45</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q8">
         <v>1856406</v>
@@ -1125,19 +1122,19 @@
         <v>5543533</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1151,13 +1148,13 @@
         <v>5</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>0.253508774251516</v>
+        <v>0.9999993610672721</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1169,25 +1166,25 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.911</v>
+        <v>0.75</v>
       </c>
       <c r="K9">
-        <v>0.0200206701193544</v>
+        <v>-0.213318277310925</v>
       </c>
       <c r="L9">
-        <v>-0.0233529796523047</v>
+        <v>-0.279299821151415</v>
       </c>
       <c r="M9">
-        <v>0.08131789581081909</v>
+        <v>-0.136427617873968</v>
       </c>
       <c r="N9">
-        <v>2.19765863000597</v>
+        <v>-28.4424369747899</v>
       </c>
       <c r="O9" t="s">
         <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1856406</v>
@@ -1196,19 +1193,19 @@
         <v>5543533</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1225,34 +1222,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>0.041120865486548</v>
+        <v>0.31735583021786</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.827586206896552</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.57</v>
+        <v>7.5</v>
       </c>
       <c r="K10">
-        <v>-0.06464601769911529</v>
+        <v>-0.0202807277628035</v>
       </c>
       <c r="L10">
-        <v>-0.123109854154483</v>
+        <v>-0.07234575558229971</v>
       </c>
       <c r="M10">
-        <v>-0.0044108783654049</v>
+        <v>0.0475044303813931</v>
       </c>
       <c r="N10">
-        <v>-0.85397645573468</v>
+        <v>-0.270409703504047</v>
       </c>
       <c r="O10" t="s">
         <v>45</v>
@@ -1267,16 +1264,16 @@
         <v>5543533</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1293,10 +1290,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11">
-        <v>0.253508774251516</v>
+        <v>0.999993178758724</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1308,25 +1305,25 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.9195</v>
+        <v>0.762</v>
       </c>
       <c r="K11">
-        <v>0.0187675778169199</v>
+        <v>-0.169638890796703</v>
       </c>
       <c r="L11">
-        <v>-0.0256074088864908</v>
+        <v>-0.233012783582357</v>
       </c>
       <c r="M11">
-        <v>0.0822574406997279</v>
+        <v>-0.122305637583823</v>
       </c>
       <c r="N11">
-        <v>2.0410633841131</v>
+        <v>-22.262321626864</v>
       </c>
       <c r="O11" t="s">
         <v>45</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1856406</v>
@@ -1335,19 +1332,19 @@
         <v>5543533</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1361,43 +1358,43 @@
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>0.252346342651449</v>
+        <v>0.999998804645837</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.793103448275862</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.985</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K12">
-        <v>0.0174245092941635</v>
+        <v>-0.192659340659341</v>
       </c>
       <c r="L12">
-        <v>-0.0290401339586824</v>
+        <v>-0.255739348793658</v>
       </c>
       <c r="M12">
-        <v>0.0571795005275467</v>
+        <v>-0.12307106886382</v>
       </c>
       <c r="N12">
-        <v>1.76898571514351</v>
+        <v>-23.6391829029866</v>
       </c>
       <c r="O12" t="s">
         <v>45</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>1856406</v>
@@ -1406,19 +1403,19 @@
         <v>5543533</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,40 +1432,40 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F13">
-        <v>0.134885239866801</v>
+        <v>0.30451756671135</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.362068965517241</v>
+        <v>0.379310344827586</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="K13">
-        <v>0.0004831349206349</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-0.000609772656158</v>
       </c>
       <c r="M13">
-        <v>0.0015346638655462</v>
+        <v>0.0012921395159825</v>
       </c>
       <c r="N13">
-        <v>3.22089947089947</v>
+        <v>0</v>
       </c>
       <c r="O13" t="s">
         <v>45</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q13">
         <v>1856406</v>
@@ -1477,19 +1474,19 @@
         <v>5543533</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1506,40 +1503,40 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14">
-        <v>0.587517215582505</v>
+        <v>0.671309786444959</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.758620689655172</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8</v>
+        <v>0.805</v>
       </c>
       <c r="K14">
-        <v>-0.0099865580847723</v>
+        <v>-0.0100103350596771</v>
       </c>
       <c r="L14">
-        <v>-0.0595468625907416</v>
+        <v>-0.0587277636836958</v>
       </c>
       <c r="M14">
-        <v>0.07669564004124139</v>
+        <v>0.0413975124263889</v>
       </c>
       <c r="N14">
-        <v>-1.24831976059654</v>
+        <v>-1.2435198831897</v>
       </c>
       <c r="O14" t="s">
         <v>45</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q14">
         <v>1856406</v>
@@ -1548,19 +1545,19 @@
         <v>5543533</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1577,40 +1574,40 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>0.354828224212717</v>
+        <v>0.539592746764269</v>
       </c>
       <c r="G15">
-        <v>0.0260869565217391</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="H15">
-        <v>0.773913043478261</v>
+        <v>0.783783783783784</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K15">
-        <v>0.0187112661391087</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>-0.123367169397822</v>
+        <v>-0.206663853074415</v>
       </c>
       <c r="M15">
-        <v>0.190508430450597</v>
+        <v>0.13497237615346</v>
       </c>
       <c r="N15">
-        <v>0.558545257883842</v>
+        <v>0</v>
       </c>
       <c r="O15" t="s">
         <v>45</v>
       </c>
       <c r="P15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q15">
         <v>1856406</v>
@@ -1619,19 +1616,19 @@
         <v>5543533</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V15" t="s">
+        <v>63</v>
+      </c>
+      <c r="W15" t="s">
         <v>64</v>
-      </c>
-      <c r="W15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1648,34 +1645,34 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16">
-        <v>0.606933744157655</v>
+        <v>0.295296371429126</v>
       </c>
       <c r="G16">
-        <v>0.344086021505376</v>
+        <v>0.348837209302326</v>
       </c>
       <c r="H16">
-        <v>0.494623655913978</v>
+        <v>0.523255813953488</v>
       </c>
       <c r="I16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16">
         <v>2.72</v>
       </c>
       <c r="K16">
-        <v>0.122259448276784</v>
+        <v>0.103528911564626</v>
       </c>
       <c r="L16">
-        <v>0.0061807819362032</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.229271045033815</v>
+        <v>0.228271289934354</v>
       </c>
       <c r="N16">
-        <v>4.49483265723471</v>
+        <v>3.8062099839936</v>
       </c>
       <c r="O16" t="s">
         <v>45</v>
@@ -1690,19 +1687,19 @@
         <v>5543533</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1719,40 +1716,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F17">
-        <v>0.955212420707244</v>
+        <v>0.98925127059309</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.873949579831933</v>
+        <v>0.840336134453782</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.93</v>
+        <v>9.94</v>
       </c>
       <c r="K17">
-        <v>0.0167239010989013</v>
+        <v>0.0212718396711202</v>
       </c>
       <c r="L17">
-        <v>0.001679694816437</v>
+        <v>0.008339903186111599</v>
       </c>
       <c r="M17">
-        <v>0.0428722471785286</v>
+        <v>0.0457000934690355</v>
       </c>
       <c r="N17">
-        <v>0.168417936544827</v>
+        <v>0.214002411178272</v>
       </c>
       <c r="O17" t="s">
         <v>45</v>
       </c>
       <c r="P17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>1856406</v>
@@ -1761,19 +1758,19 @@
         <v>5543533</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,13 +1787,13 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.260199960408128</v>
+        <v>0.5214086301038739</v>
       </c>
       <c r="G18">
-        <v>0.0423728813559322</v>
+        <v>0.0593220338983051</v>
       </c>
       <c r="H18">
         <v>0.144067796610169</v>
@@ -1811,10 +1808,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>-7.882883309728181E-05</v>
+        <v>-0.0001999178981937</v>
       </c>
       <c r="M18">
-        <v>0.000332347588717</v>
+        <v>0.0001670448153502</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1823,7 +1820,7 @@
         <v>45</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q18">
         <v>1856406</v>
@@ -1832,19 +1829,19 @@
         <v>5543533</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1861,40 +1858,40 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19">
-        <v>0.307099301985431</v>
+        <v>0.553367828968826</v>
       </c>
       <c r="G19">
-        <v>0.008474576271186401</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H19">
-        <v>0.635593220338983</v>
+        <v>0.683760683760684</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="K19">
-        <v>0.5634555731356961</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-4.32953921084962</v>
+        <v>-5.92036884137947</v>
       </c>
       <c r="M19">
-        <v>5.99735843539807</v>
+        <v>3.90364014905424</v>
       </c>
       <c r="N19">
-        <v>0.450764458508557</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
         <v>45</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q19">
         <v>1856406</v>
@@ -1903,19 +1900,19 @@
         <v>5543533</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20">
-        <v>0.964601769911504</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="H20">
-        <v>0.0442477876106195</v>
+        <v>0.0446428571428571</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1947,7 +1944,7 @@
         <v>45</v>
       </c>
       <c r="P20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1856406</v>
@@ -1956,19 +1953,19 @@
         <v>5543533</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1985,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21">
-        <v>0.999992996212357</v>
+        <v>0.999992717965153</v>
       </c>
       <c r="G21">
-        <v>0.406779661016949</v>
+        <v>0.483050847457627</v>
       </c>
       <c r="H21">
-        <v>0.101694915254237</v>
+        <v>0.09322033898305079</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2003,22 +2000,22 @@
         <v>0.002</v>
       </c>
       <c r="K21">
-        <v>-0.000130121125757</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>-0.0002298615481434</v>
+        <v>-0.0001768765133171</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>-6.5060562878518</v>
+        <v>0</v>
       </c>
       <c r="O21" t="s">
         <v>45</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q21">
         <v>1856406</v>
@@ -2027,19 +2024,19 @@
         <v>5543533</v>
       </c>
       <c r="S21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2056,40 +2053,40 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0003986389262387</v>
+        <v>0.326742673749772</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8219</v>
+        <v>0.7375</v>
       </c>
       <c r="K22">
-        <v>0.0371570481242895</v>
+        <v>0.0054408035584377</v>
       </c>
       <c r="L22">
-        <v>0.0149692356007691</v>
+        <v>-0.0140504301916</v>
       </c>
       <c r="M22">
-        <v>0.0546533296111398</v>
+        <v>0.0249794191275194</v>
       </c>
       <c r="N22">
-        <v>4.52087214068494</v>
+        <v>0.737736075720376</v>
       </c>
       <c r="O22" t="s">
         <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q22">
         <v>1856406</v>
@@ -2098,19 +2095,19 @@
         <v>5543533</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2127,34 +2124,34 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.999893701573728</v>
+        <v>0.9959273401444551</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.644067796610169</v>
+        <v>0.623931623931624</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.445</v>
+        <v>7.47</v>
       </c>
       <c r="K23">
-        <v>0.0385755975541969</v>
+        <v>0.0269415934978643</v>
       </c>
       <c r="L23">
-        <v>0.0206642997489162</v>
+        <v>0.0094860283547541</v>
       </c>
       <c r="M23">
-        <v>0.0560755959176486</v>
+        <v>0.0453726708074536</v>
       </c>
       <c r="N23">
-        <v>0.518141001399555</v>
+        <v>0.360663902247179</v>
       </c>
       <c r="O23" t="s">
         <v>45</v>
@@ -2169,16 +2166,16 @@
         <v>5543533</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2195,40 +2192,40 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0002683052437711</v>
+        <v>0.307801895529618</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.906779661016949</v>
+        <v>0.898305084745763</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.82855</v>
+        <v>0.7455000000000001</v>
       </c>
       <c r="K24">
-        <v>0.0367306479704506</v>
+        <v>0.0062360465901768</v>
       </c>
       <c r="L24">
-        <v>0.0170171885049321</v>
+        <v>-0.0106862249739394</v>
       </c>
       <c r="M24">
-        <v>0.0570754385725632</v>
+        <v>0.0246744440509504</v>
       </c>
       <c r="N24">
-        <v>4.43312388756871</v>
+        <v>0.83649182966826</v>
       </c>
       <c r="O24" t="s">
         <v>45</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q24">
         <v>1856406</v>
@@ -2237,19 +2234,19 @@
         <v>5543533</v>
       </c>
       <c r="S24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2266,40 +2263,40 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F25">
-        <v>0.0055499119391289</v>
+        <v>0.468383926011026</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.720338983050847</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.925</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K25">
-        <v>0.0249658236500342</v>
+        <v>0.000828231292517</v>
       </c>
       <c r="L25">
-        <v>0.0100257900549197</v>
+        <v>-0.0144617979521364</v>
       </c>
       <c r="M25">
-        <v>0.0380426082479043</v>
+        <v>0.0184732417977887</v>
       </c>
       <c r="N25">
-        <v>2.69900796216586</v>
+        <v>0.102250776853952</v>
       </c>
       <c r="O25" t="s">
         <v>45</v>
       </c>
       <c r="P25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q25">
         <v>1856406</v>
@@ -2308,19 +2305,19 @@
         <v>5543533</v>
       </c>
       <c r="S25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2340,7 +2337,7 @@
         <v>43</v>
       </c>
       <c r="F26">
-        <v>0.772843021607229</v>
+        <v>0.305543187119485</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2358,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>-0.0003342387118008</v>
+        <v>-0.000159428651636</v>
       </c>
       <c r="M26">
-        <v>8.597353311198071E-05</v>
+        <v>0.000334187786539</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2370,7 +2367,7 @@
         <v>45</v>
       </c>
       <c r="P26" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Q26">
         <v>1856406</v>
@@ -2379,19 +2376,19 @@
         <v>5543533</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2408,40 +2405,40 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F27">
-        <v>0.9930065833641279</v>
+        <v>0.848806361196585</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.754237288135593</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0.855</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K27">
-        <v>-0.0399462323390894</v>
+        <v>-0.0100183113611627</v>
       </c>
       <c r="L27">
-        <v>-0.07893158496571211</v>
+        <v>-0.0368064294615753</v>
       </c>
       <c r="M27">
-        <v>-0.009742997436967601</v>
+        <v>0.009968904227724701</v>
       </c>
       <c r="N27">
-        <v>-4.67207395778824</v>
+        <v>-1.23682856310651</v>
       </c>
       <c r="O27" t="s">
         <v>45</v>
       </c>
       <c r="P27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1856406</v>
@@ -2450,19 +2447,19 @@
         <v>5543533</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2479,40 +2476,40 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F28">
-        <v>0.0061616084407529</v>
+        <v>0.0103052406905971</v>
       </c>
       <c r="G28">
         <v>0.0177514792899408</v>
       </c>
       <c r="H28">
-        <v>0.70414201183432</v>
+        <v>0.715976331360947</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="K28">
-        <v>0.0909887326958102</v>
+        <v>0.0784805086651397</v>
       </c>
       <c r="L28">
-        <v>0.0205960393471812</v>
+        <v>0.0159535141770728</v>
       </c>
       <c r="M28">
-        <v>0.216970485921946</v>
+        <v>0.169448731824</v>
       </c>
       <c r="N28">
-        <v>3.24959759627894</v>
+        <v>2.9615286288732</v>
       </c>
       <c r="O28" t="s">
         <v>45</v>
       </c>
       <c r="P28" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1856406</v>
@@ -2521,19 +2518,19 @@
         <v>5543533</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V28" t="s">
+        <v>63</v>
+      </c>
+      <c r="W28" t="s">
         <v>64</v>
-      </c>
-      <c r="W28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2553,37 +2550,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.955541188301601</v>
+        <v>0.982749935970092</v>
       </c>
       <c r="G29">
-        <v>0.296296296296296</v>
+        <v>0.290076335877863</v>
       </c>
       <c r="H29">
-        <v>0.42962962962963</v>
+        <v>0.442748091603053</v>
       </c>
       <c r="I29">
         <v>17</v>
       </c>
       <c r="J29">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K29">
-        <v>0.0760937500000001</v>
+        <v>0.109210963455149</v>
       </c>
       <c r="L29">
-        <v>0.002022935272514</v>
+        <v>0.0374173743535438</v>
       </c>
       <c r="M29">
-        <v>0.138000010969495</v>
+        <v>0.166860380244811</v>
       </c>
       <c r="N29">
-        <v>3.17057291666667</v>
+        <v>4.96413470250679</v>
       </c>
       <c r="O29" t="s">
         <v>45</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q29">
         <v>1856406</v>
@@ -2592,19 +2589,19 @@
         <v>5543533</v>
       </c>
       <c r="S29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2621,40 +2618,40 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30">
-        <v>0.0044178553602599</v>
+        <v>0.15623409268492</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.794117647058823</v>
+        <v>0.76271186440678</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>9.98</v>
+        <v>9.94</v>
       </c>
       <c r="K30">
-        <v>-0.0299883976048975</v>
+        <v>-0.009468423354483099</v>
       </c>
       <c r="L30">
-        <v>-0.0468587177437589</v>
+        <v>-0.0276060172543854</v>
       </c>
       <c r="M30">
-        <v>-0.0100303473100386</v>
+        <v>0.006800717343743</v>
       </c>
       <c r="N30">
-        <v>-0.300484945940856</v>
+        <v>-0.0952557681537544</v>
       </c>
       <c r="O30" t="s">
         <v>45</v>
       </c>
       <c r="P30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="Q30">
         <v>1856406</v>
@@ -2663,19 +2660,19 @@
         <v>5543533</v>
       </c>
       <c r="S30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2692,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F31">
-        <v>0.493745111198731</v>
+        <v>0.5</v>
       </c>
       <c r="G31">
-        <v>0.0470588235294118</v>
+        <v>0.0568181818181818</v>
       </c>
       <c r="H31">
-        <v>0.111764705882353</v>
+        <v>0.107954545454545</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2713,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.000111018237082</v>
+        <v>-9.97960306441385E-05</v>
       </c>
       <c r="M31">
-        <v>0.0001110086672861</v>
+        <v>0.000111018237082</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2725,7 +2722,7 @@
         <v>45</v>
       </c>
       <c r="P31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q31">
         <v>1856406</v>
@@ -2734,19 +2731,19 @@
         <v>5543533</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2763,40 +2760,40 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32">
-        <v>0.854484271578857</v>
+        <v>0.85476136906952</v>
       </c>
       <c r="G32">
-        <v>0.0058823529411764</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H32">
-        <v>0.658823529411765</v>
+        <v>0.68</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K32">
-        <v>-1.84828727131179</v>
+        <v>-1.53017387755102</v>
       </c>
       <c r="L32">
-        <v>-5.84422439891644</v>
+        <v>-5.0317184384762</v>
       </c>
       <c r="M32">
-        <v>0.596914372741262</v>
+        <v>0.584710290914746</v>
       </c>
       <c r="N32">
-        <v>-1.30161075444493</v>
+        <v>-1.1770568288854</v>
       </c>
       <c r="O32" t="s">
         <v>45</v>
       </c>
       <c r="P32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q32">
         <v>1856406</v>
@@ -2805,19 +2802,19 @@
         <v>5543533</v>
       </c>
       <c r="S32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2837,13 +2834,13 @@
         <v>44</v>
       </c>
       <c r="F33">
-        <v>0.942772057303059</v>
+        <v>0.93495298468234</v>
       </c>
       <c r="G33">
-        <v>0.933333333333333</v>
+        <v>0.929411764705882</v>
       </c>
       <c r="H33">
-        <v>0.0787878787878788</v>
+        <v>0.0823529411764706</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -2876,19 +2873,19 @@
         <v>5543533</v>
       </c>
       <c r="S33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2905,16 +2902,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F34">
-        <v>0.9253007132129411</v>
+        <v>0.987230659275849</v>
       </c>
       <c r="G34">
-        <v>0.481927710843373</v>
+        <v>0.494318181818182</v>
       </c>
       <c r="H34">
-        <v>0.0783132530120482</v>
+        <v>0.0738636363636364</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2926,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-3.52747748548081E-05</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2938,7 +2935,7 @@
         <v>45</v>
       </c>
       <c r="P34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q34">
         <v>1856406</v>
@@ -2947,19 +2944,19 @@
         <v>5543533</v>
       </c>
       <c r="S34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2976,40 +2973,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F35">
-        <v>7.599767770233659E-11</v>
+        <v>4.96437262660691E-05</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.927710843373494</v>
+        <v>0.914772727272727</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.7225</v>
+        <v>0.70435</v>
       </c>
       <c r="K35">
-        <v>0.0346045386904762</v>
+        <v>0.0201912381511618</v>
       </c>
       <c r="L35">
-        <v>0.0250102413582085</v>
+        <v>0.0117863520378653</v>
       </c>
       <c r="M35">
-        <v>0.0456001546434407</v>
+        <v>0.0301553156986373</v>
       </c>
       <c r="N35">
-        <v>4.78955552809359</v>
+        <v>2.86664842069452</v>
       </c>
       <c r="O35" t="s">
         <v>45</v>
       </c>
       <c r="P35" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q35">
         <v>1856406</v>
@@ -3018,19 +3015,19 @@
         <v>5543533</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3047,34 +3044,34 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36">
-        <v>0.999992184961602</v>
+        <v>0.999978057206782</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.43</v>
+        <v>7.44</v>
       </c>
       <c r="K36">
-        <v>0.0333942857142857</v>
+        <v>0.0271665811746601</v>
       </c>
       <c r="L36">
-        <v>0.0207642160741917</v>
+        <v>0.0163058035714283</v>
       </c>
       <c r="M36">
-        <v>0.0461247040252565</v>
+        <v>0.0383665966386554</v>
       </c>
       <c r="N36">
-        <v>0.449452028456067</v>
+        <v>0.365142220089517</v>
       </c>
       <c r="O36" t="s">
         <v>45</v>
@@ -3089,16 +3086,16 @@
         <v>5543533</v>
       </c>
       <c r="S36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3115,40 +3112,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>5.04510741063127E-10</v>
+        <v>0.000107349797375</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.929411764705882</v>
+        <v>0.931818181818182</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.726</v>
+        <v>0.7135</v>
       </c>
       <c r="K37">
-        <v>0.0310586734693878</v>
+        <v>0.0194055438843988</v>
       </c>
       <c r="L37">
-        <v>0.0228187538115399</v>
+        <v>0.0114803177999025</v>
       </c>
       <c r="M37">
-        <v>0.0403035279171358</v>
+        <v>0.0291871866888041</v>
       </c>
       <c r="N37">
-        <v>4.27805419688537</v>
+        <v>2.71976788849317</v>
       </c>
       <c r="O37" t="s">
         <v>45</v>
       </c>
       <c r="P37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q37">
         <v>1856406</v>
@@ -3157,19 +3154,19 @@
         <v>5543533</v>
       </c>
       <c r="S37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3186,40 +3183,40 @@
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F38">
-        <v>4.55545580408534E-06</v>
+        <v>0.0240160839953853</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.717647058823529</v>
+        <v>0.704545454545455</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.8129999999999999</v>
+        <v>0.785</v>
       </c>
       <c r="K38">
-        <v>0.0215340136054422</v>
+        <v>0.0101351641779273</v>
       </c>
       <c r="L38">
-        <v>0.0133291574877851</v>
+        <v>0.0020276806349595</v>
       </c>
       <c r="M38">
-        <v>0.0298312489975429</v>
+        <v>0.0199726589200274</v>
       </c>
       <c r="N38">
-        <v>2.64871016057099</v>
+        <v>1.29110371693342</v>
       </c>
       <c r="O38" t="s">
         <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="Q38">
         <v>1856406</v>
@@ -3228,19 +3225,19 @@
         <v>5543533</v>
       </c>
       <c r="S38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3257,16 +3254,16 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>0.971565337039676</v>
+        <v>0.927125893846814</v>
       </c>
       <c r="G39">
-        <v>0.0235294117647059</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H39">
-        <v>0.252941176470588</v>
+        <v>0.244318181818182</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -3275,22 +3272,22 @@
         <v>0.016</v>
       </c>
       <c r="K39">
-        <v>-0.0002138466042154</v>
+        <v>-0.000181806869089</v>
       </c>
       <c r="L39">
-        <v>-0.0004154344858962</v>
+        <v>-0.0003998357963875</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>-1.3365412763466</v>
+        <v>-1.13629293180687</v>
       </c>
       <c r="O39" t="s">
         <v>45</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q39">
         <v>1856406</v>
@@ -3299,19 +3296,19 @@
         <v>5543533</v>
       </c>
       <c r="S39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3328,40 +3325,40 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F40">
-        <v>0.999900622972852</v>
+        <v>0.999963660171548</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.770588235294118</v>
+        <v>0.738636363636364</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.955</v>
+        <v>0.9</v>
       </c>
       <c r="K40">
-        <v>-0.0399180327868853</v>
+        <v>-0.039365965828125</v>
       </c>
       <c r="L40">
-        <v>-0.0654869832755019</v>
+        <v>-0.06415854613798599</v>
       </c>
       <c r="M40">
-        <v>-0.0211703034435731</v>
+        <v>-0.0214333920019215</v>
       </c>
       <c r="N40">
-        <v>-4.17989872113982</v>
+        <v>-4.373996203125</v>
       </c>
       <c r="O40" t="s">
         <v>45</v>
       </c>
       <c r="P40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q40">
         <v>1856406</v>
@@ -3370,19 +3367,19 @@
         <v>5543533</v>
       </c>
       <c r="S40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3399,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.59675202974633</v>
+        <v>0.95679463351315</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3417,22 +3414,22 @@
         <v>0.36</v>
       </c>
       <c r="K41">
-        <v>0.0064234341742551</v>
+        <v>0.0510451318101933</v>
       </c>
       <c r="L41">
-        <v>-0.0760373361906982</v>
+        <v>-0.0208499692844007</v>
       </c>
       <c r="M41">
-        <v>0.07044643230904291</v>
+        <v>0.0769396882966028</v>
       </c>
       <c r="N41">
-        <v>1.78428727062642</v>
+        <v>14.1792032806093</v>
       </c>
       <c r="O41" t="s">
         <v>45</v>
       </c>
       <c r="P41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q41">
         <v>1856406</v>
@@ -3441,16 +3438,16 @@
         <v>5543533</v>
       </c>
       <c r="S41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3467,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.40324797025367</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3485,22 +3482,22 @@
         <v>105</v>
       </c>
       <c r="K42">
-        <v>-2.32599282007384</v>
+        <v>2.99198283008979</v>
       </c>
       <c r="L42">
         <v>-11.197695227448</v>
       </c>
       <c r="M42">
-        <v>2.65196032903322</v>
+        <v>11.0360214883457</v>
       </c>
       <c r="N42">
-        <v>-2.21523125721318</v>
+        <v>2.84950745722837</v>
       </c>
       <c r="O42" t="s">
         <v>45</v>
       </c>
       <c r="P42" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q42">
         <v>1856406</v>
@@ -3509,16 +3506,16 @@
         <v>5543533</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3535,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43">
-        <v>0.5</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3553,22 +3550,22 @@
         <v>4.591</v>
       </c>
       <c r="K43">
-        <v>0.0308202589123233</v>
+        <v>0.759216491922864</v>
       </c>
       <c r="L43">
-        <v>-1.64379872197727</v>
+        <v>-1.09127907321205</v>
       </c>
       <c r="M43">
         <v>1.16759261943274</v>
       </c>
       <c r="N43">
-        <v>0.67131907890053</v>
+        <v>16.5370614664096</v>
       </c>
       <c r="O43" t="s">
         <v>45</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q43">
         <v>1856406</v>
@@ -3577,16 +3574,16 @@
         <v>5543533</v>
       </c>
       <c r="S43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3603,40 +3600,40 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.063424647007573</v>
+        <v>0.141565435331173</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.506</v>
+        <v>0.496</v>
       </c>
       <c r="K44">
-        <v>-0.019875</v>
+        <v>-0.0174760765550239</v>
       </c>
       <c r="L44">
-        <v>-0.0348655755667223</v>
+        <v>-0.0349960845391043</v>
       </c>
       <c r="M44">
-        <v>-0.0007134743278915001</v>
+        <v>0.001816947321988</v>
       </c>
       <c r="N44">
-        <v>-3.92786561264822</v>
+        <v>-3.52340253125483</v>
       </c>
       <c r="O44" t="s">
         <v>45</v>
       </c>
       <c r="P44" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q44">
         <v>1856406</v>
@@ -3645,16 +3642,16 @@
         <v>5543533</v>
       </c>
       <c r="S44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3671,16 +3668,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45">
-        <v>0.019439702257616</v>
+        <v>0.185546684761349</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3689,22 +3686,22 @@
         <v>110.5</v>
       </c>
       <c r="K45">
-        <v>-1.74760765550239</v>
+        <v>-1.18906936813187</v>
       </c>
       <c r="L45">
-        <v>-3.12237172891668</v>
+        <v>-3.13093118608941</v>
       </c>
       <c r="M45">
-        <v>-0.51921078977228</v>
+        <v>0.377431515963957</v>
       </c>
       <c r="N45">
-        <v>-1.58154538959493</v>
+        <v>-1.07608087613744</v>
       </c>
       <c r="O45" t="s">
         <v>45</v>
       </c>
       <c r="P45" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q45">
         <v>1856406</v>
@@ -3713,16 +3710,16 @@
         <v>5543533</v>
       </c>
       <c r="S45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3739,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F46">
         <v>0.360257393568128</v>
@@ -3754,25 +3751,25 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>5.2475</v>
+        <v>5.848</v>
       </c>
       <c r="K46">
-        <v>-0.0343749999999999</v>
+        <v>-0.0548616373477671</v>
       </c>
       <c r="L46">
-        <v>-0.328846837315267</v>
+        <v>-0.454086623046644</v>
       </c>
       <c r="M46">
-        <v>0.299520505092704</v>
+        <v>0.186843106501163</v>
       </c>
       <c r="N46">
-        <v>-0.6550738446879451</v>
+        <v>-0.938126493634869</v>
       </c>
       <c r="O46" t="s">
         <v>45</v>
       </c>
       <c r="P46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q46">
         <v>1856406</v>
@@ -3781,16 +3778,16 @@
         <v>5543533</v>
       </c>
       <c r="S46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
